--- a/APM files/142038176/141739658 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/142038176/141739658 IMPORT Stop Sell Removal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/142038176/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538CBA26-CDD8-3B4D-BC44-0C03B2A737B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E432731-C5D8-BC43-8C56-7F384844066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
